--- a/da13/Day_6.xlsx
+++ b/da13/Day_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Acciojob\Modules\Excel\batch\da13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA7E036-33D0-4C41-A9D8-E21414614696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEAF233-1842-428A-8C9F-3E9D597B4A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="750" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E4FAC7A2-194B-4DBE-ACA1-546198A701A9}"/>
   </bookViews>
@@ -4404,6 +4404,71 @@
             <a:xfrm>
               <a:off x="2983762" y="2681094"/>
               <a:ext cx="303840" cy="429694"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76051</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>627571</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>46701</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="7" name="Ink 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7970840B-23FE-967F-D7AA-23AD9745FF94}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3582442" y="3397964"/>
+            <a:ext cx="551520" cy="577800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Ink 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7970840B-23FE-967F-D7AA-23AD9745FF94}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3576326" y="3391794"/>
+              <a:ext cx="563752" cy="590140"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5204,6 +5269,35 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-10-06T14:46:58.521"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">47 44 544,'0'0'3255,"-17"-21"-320,15 21-2939,1 1 0,0-1 0,0 1-1,-1 0 1,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0-1,-1 1 1,0-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 2 0,-8 39-134,8-42 116,2 0 51,0 0 0,0-1 0,0 1 0,-1 0 0,1-1-1,0 1 1,0-1 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0-1,-1 0 1,1-1 0,-1 1 0,0 0 0,1 0 0,-1-1 0,0 1-1,0-1 1,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 1-1,1-1 1,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0-1,0 0 1,0 1 0,0-1 0,-1-2 0,1 2 5,0 2-37,1 0 0,-1 0-1,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0 1 0,1-1-1,-1 0 1,1 0-1,-1 0 1,0 0-1,1 1 1,-1-1 0,0 0-1,1 0 1,-1 1-1,0-1 1,1 0-1,-1 1 1,0-1 0,0 0-1,1 1 1,-1-1-1,0 0 1,0 1-1,0-1 1,1 1 0,-1-1-1,0 0 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1 0,0-1-1,0 0 1,0 1-1,0-1 1,0 1-1,0-1 1,0 0 0,0 1-1,-1-1 1,1 1-1,0-1 1,0 0-1,0 1 1,-1-1 0,1 0-1,0 1 1,0-1-1,-1 0 1,1 1-1,0-1 1,-1 0 0,1 1-1,0-1 1,-1 0-1,1 0 1,-1 1-1,2-2 69,1 1 0,-1-1 0,0 1 0,0-1-1,1 1 1,-1-1 0,0 0 0,0 0 0,0 0 0,0 0-1,0 1 1,0-1 0,0 0 0,0-1 0,0 1-1,0-1 1,3-2-2879</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2378.69">70 61 80,'0'0'7025,"25"0"-7105,7-2 409,-1-2 0,45-9 0,15-3-159,-13 4-105,-52 7-22,0 1-1,1 1 1,49 1-1,57 6 1196,-100 4-1598,-10 5 364,-1 2 0,0 1-1,-1 0 1,-1 2 0,26 28 0,-23-22-13,2-1 1,52 39-1,-28-33 12,1-2 0,96 36-1,132 57 14,-227-95-3,-1 2 0,-1 3 0,-2 2-1,73 62 1,-44-42 7,-56-40-10,0 1-1,34 29 0,-43-32-3,0-2 1,1 0-1,1 0 0,-1-1 0,19 7 0,-17-8-9,1 2 0,-1-1 0,0 2 0,13 10 0,96 67 93,-81-60-118,-37-24 24,0 1 1,-1-1-1,1 1 1,-1-1-1,1 1 0,-1 0 1,0 1-1,0-1 1,0 1-1,-1 0 1,1 0-1,-1 0 1,0 0-1,0 1 1,4 8-1,-7-13-60,0 0 1,0 1-1,0-1 1,0 0-1,0 0 0,0 1 1,0-1-1,1 0 1,-1 1-1,0-1 0,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,1 0 1,-1 0-1,0 1 0,0-1 1,0 0-1,1 0 1,-1 0-1,0 0 0,0 1 1,1-1-1,-1 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,1 0 1,-1-1-1,0 1 0,1 0 1,2-5-3987</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2024-10-06T14:47:12.099"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
@@ -5221,7 +5315,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5251,7 +5345,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5277,10 +5371,10 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 153 2865,'0'0'8674,"6"-3"-4795,24-7-3767,-27 9-118,0 1 0,0-1-1,1 1 1,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,0 0-1,-1 0 1,0 0 0,3 2 0,-3 0-7,0-1 0,0 1 0,-1 0 0,1 0 1,-1 0-1,0 0 0,0 1 0,0-1 0,-1 0 0,0 0 0,1 1 0,-2-1 0,1 0 0,0 0 0,-1 0 1,-1 7-1,0-6-12,0 0-1,0 0 1,-1 0 0,1-1 0,-1 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,0-1 0,0 1 0,0-1 0,0 1 0,-7 3-1,11-7-28,0 0 0,-1-1-1,1 1 1,0 0-1,0 0 1,-1-1 0,1 1-1,0 0 1,0 0-1,0-1 1,-1 1 0,1 0-1,0 0 1,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0 0-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1-1,0 0 1,0-1 0,0 1-1,0 0 1,0-1-1,0 1 1,0 0 0,0-1-1,0 1 1,0 0-1,1 0 1,-1-1 0,0 1-1,0 0 1,0 0-1,1-1 1,-1 1 0,0 0-1,1-1 1,7-19-807,10-4 418,0 1 0,2 0 0,1 2 0,23-20 1,-39 37 417,-11 6 3118,-36 24-3128,37-20 72,0-1 0,0 1 1,1 0-1,0 1 1,0-1-1,-6 13 0,9-16-39,-1 0 0,1 0-1,0 1 1,0-1-1,0 0 1,0 1 0,1-1-1,-1 1 1,1-1 0,0 1-1,0-1 1,0 1 0,0-1-1,1 0 1,0 1-1,1 6 1,0-9 2,-1 1 1,0-1-1,1 1 0,-1-1 1,1 1-1,-1-1 0,1 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 0,0-1 1,0 1-1,-1-1 0,1 1 0,0-1 1,0 1-1,4-1 0,46 1 204,-38-2-96,33 1-1226</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="574.72">532 150 5298,'0'0'4333,"-7"-5"-4098,4 3-222,0 0 1,0 0-1,0 1 1,0-1-1,-1 1 1,1-1-1,0 1 1,-1 0-1,1 0 1,-1 1-1,1-1 1,-1 1-1,1-1 1,-1 1-1,0 0 1,1 0-1,-1 1 1,1-1-1,-1 1 1,1 0-1,-1 0 1,1 0-1,-1 0 1,1 1-1,0-1 1,0 1-1,0 0 1,0 0-1,0 0 1,0 0-1,0 1 1,1-1-1,-5 5 1,3-1-8,0-1 0,1 1 0,-1 0 0,1 0 0,1 1 0,-4 10 0,5-16-13,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0 0,0 1-1,-1-1 1,1 0-1,0 0 1,0 0 0,0 1-1,0-1 1,0 0 0,0 0-1,0 0 1,0 1-1,1-1 1,-1 0 0,0 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1 0-1,0 0 1,-1 0 0,1 0-1,0 0 1,0 0 0,0 0-1,-1 0 1,1 0-1,0-1 1,0 1 0,0 0-1,0-1 1,0 1 0,1-1-1,-1 1 1,0-1-1,0 1 1,2-1 0,4 1-27,1 0 0,-1-1 0,0 0 0,1 0 0,-1-1 1,0 0-1,1 0 0,-1-1 0,12-4 0,-16 5 71,0 0 0,-1 0 0,1-1 0,-1 1-1,1-1 1,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0-1,-1 0 1,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 0-1,0 1 1,0-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0-1,-1-4 1,-2-15 1375,-3 37-735,-2 37-656,7-50-39,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,4 3 0,-1-2-154,0-1-1,1 1 1,-1-1 0,0 0 0,1 0 0,-1-1 0,0 1-1,1-1 1,7 0 0,-4 0-325,-1 0-1,1 0 1,-1 0 0,1-1 0,-1 0 0,1-1-1,-1 0 1,0 0 0,0 0 0,8-4-1,12-11-2440</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="929.34">764 132 4306,'0'0'7443,"-43"8"-7235,30 13-127,-4 2-49,4-2 0,-1-2-32,4-1 0,4-2-321,-1-5-703,1 0-625,2-5-1568</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1304.34">612 180 4930,'0'0'6787,"33"-4"-6515,-13 13 161,-4 3-17,4 1-64,-3 0-256,-1 1-80,-6 1-32,0 0 0,0 0-624,0-2-1153,0-1-576,3-5-1377</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1305.34">884 223 6099,'0'0'6131,"-30"42"-6259,27-25 64,3 0-577,0-2-1088,0-3-480,0-7-2881</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1306.34">917 83 10773,'0'0'2513,"-30"36"-7779,27-6-385</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="929.33">764 132 4306,'0'0'7443,"-43"8"-7235,30 13-127,-4 2-49,4-2 0,-1-2-32,4-1 0,4-2-321,-1-5-703,1 0-625,2-5-1568</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1304.33">612 180 4930,'0'0'6787,"33"-4"-6515,-13 13 161,-4 3-17,4 1-64,-3 0-256,-1 1-80,-6 1-32,0 0 0,0 0-624,0-2-1153,0-1-576,3-5-1377</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1305.33">884 223 6099,'0'0'6131,"-30"42"-6259,27-25 64,3 0-577,0-2-1088,0-3-480,0-7-2881</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1306.33">917 83 10773,'0'0'2513,"-30"36"-7779,27-6-385</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1674.6">1070 167 5891,'0'0'5061,"-13"-1"-4445,-39-2-365,51 3-251,0 0-1,0 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,0 1-1,0-1 1,0 0 0,0 1 0,0-1 0,0 1 0,0-1-1,0 1 1,1-1 0,-1 1 0,0-1 0,0 1 0,1 0-1,-1 0 1,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0-1,1-1 1,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 2 0,8 28-95,23-6 222,-28-23-108,0-1 0,0 1 0,0 0 0,0 0-1,-1 0 1,1 1 0,0-1 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0 0-1,-1 0 1,1 0 0,0 0 0,-1 1 0,0-1 0,1 0 0,-2 1-1,2 4 1,-3-6 58,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,-4 3 0,-19 9-700,5-7-3608</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2018.39">1275 252 8724,'0'0'7796,"73"-14"-7428,-40 9-48,4-1-16,-1 0-192,1 1-64,-11 1-48,-3 0-32,-9 4-656,-11 0-849,-13 8-10324</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2360.08">1355 326 4802,'0'0'10421,"36"-8"-10261,-9-1-16,-1 1-96,1 1-48,-7-1-80,-7 0-368,0 3-625,-6-1-1168,-1-1-1376</inkml:trace>
@@ -5356,6 +5450,36 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-10-12T16:45:48.154"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">128 395 7475,'0'0'5099,"-2"-4"-4696,-4-4-399,1 0 0,0 0 1,0 0-1,1 0 0,0-1 0,0 0 1,1 0-1,1 0 0,-1 0 1,1 0-1,1 0 0,-1-16 1,2 13-68,-3-33-145,3 43 226,0 0-1,-1 0 1,1 0 0,-1 0 0,0 0-1,1 0 1,-1 0 0,0 1 0,0-1-1,-1 0 1,1 1 0,0-1 0,0 0 0,-1 1-1,1-1 1,-1 1 0,1 0 0,-3-2-1,3 3 18,1-1-1,-1 1 0,0 0 0,1-1 1,-1 1-1,0 0 0,1 0 0,-1-1 1,0 1-1,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,1 0 0,-1 0 1,0 0-1,0 0 0,1 0 1,-1 1-1,0-1 0,0 0 0,1 0 1,-1 1-1,0-1 0,1 0 0,-1 1 1,0 0-1,-13 22 309,2 46-419,9-50 168,0 17-11,0 1 0,4 45 0,0-27 111,-2-53-190,1 0-1,0 0 1,0 1 0,0-1 0,1 0 0,-1 0 0,0 0-1,1 1 1,-1-1 0,1 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0-1 0,3 5 0,-2-6 1,-1 1-1,0 0 1,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 0 0,1 1 0,-1-1-1,1 0 1,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1-1,-1 1 1,2-1 0,7-3 33,0-1 0,0 0-1,0-1 1,0 0 0,10-8 0,-16 10-11,133-96 541,276-152-1,-348 220-458,1 3-1,1 3 0,95-24 0,-159 49-155,-1 0-1,1 0 1,0 0 0,0 1 0,-1 0 0,1-1 0,0 1-1,0 0 1,0 0 0,-1 0 0,1 1 0,4 0 0,-6 0-203,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 1,0-1-1,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0 0 1,0-1-1,1 1 0,-1 0 0,0-1 0,0 1 0,-1-1 0,1 4 1,0 4-3106</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1341.54">138 701 6915,'0'0'4402,"-4"1"-3911,3-1-430,0 0-1,0 0 1,-1 1-1,1-1 1,0 1 0,0-1-1,0 0 1,0 1-1,0 0 1,0-1-1,0 1 1,0 0 0,0-1-1,1 1 1,-1 0-1,0 0 1,0 0 0,0 0-1,1 0 1,-1 0-1,1 0 1,-1 0-1,0 1 1,-2 35 1659,3-36-1711,-3 88 1631,1-51-1343,1-1 0,2 1 0,10 65 0,-11-102-301,0 0 1,0 0-1,1 0 0,-1 0 1,0-1-1,1 1 0,-1 0 1,1 0-1,-1 0 0,1-1 1,-1 1-1,1 0 1,0 0-1,-1-1 0,1 1 1,0-1-1,0 1 0,0 0 1,-1-1-1,1 1 0,0-1 1,0 0-1,0 1 0,0-1 1,0 0-1,0 0 1,0 1-1,0-1 0,-1 0 1,1 0-1,0 0 0,0 0 1,0 0-1,0 0 0,0-1 1,0 1-1,0 0 1,0 0-1,0-1 0,1 0 1,38-17-72,-36 15 107,239-150 452,-27 16-224,-135 87-146,-20 12 51,1 3 0,85-35-1,-145 69-233,1 0 0,-1 0-1,0 0 1,1 0 0,0 1-1,-1-1 1,1 1-1,-1 0 1,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,0 1 1,2 0 0,-4 0-99,0 0 1,0-1 0,0 1-1,0 0 1,0 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0-1,0 0 1,-1 0 0,1 1 0,0-1-1,-1 0 1,1 0 0,-1 1-1,0-1 1,1 0 0,-1 1 0,0-1-1,0 0 1,0 1 0,1-1-1,-2 1 1,1 1 0,-3 22-1941,-13 4-1245</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2157.81">187 1181 5699,'0'0'7054,"1"22"-6038,-1-8-866,1 29 215,2 0 0,11 55 1,-7-63-76,12 46 101,-18-76-370,1 0-1,-1 0 0,1 0 0,1-1 0,-1 1 1,1 0-1,0-1 0,0 0 0,0 0 1,0 0-1,1 0 0,4 4 0,-5-7-5,1 1 0,-1 0-1,1-1 1,0 1-1,0-1 1,0 0 0,0-1-1,0 1 1,0 0-1,0-1 1,0 0 0,0 0-1,0 0 1,0-1-1,0 0 1,-1 1 0,1-1-1,0 0 1,6-3-1,7-3 216,-1 0 0,31-18 0,218-147 930,-154 95-618,3 5 0,138-63-1,-220 120-554,0 2 0,1 1 0,1 2 0,0 1 0,1 2 0,-1 1 0,64-2 0,-97 8-89,0 1 0,0-1 0,0 0-1,0 1 1,0-1 0,0 0-1,1 1 1,-1 0 0,0-1 0,-1 1-1,1-1 1,0 1 0,0 0 0,0 0-1,0 0 1,0 0 0,-1-1 0,1 1-1,0 0 1,0 2 0,4 12-4746</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2024-10-06T14:46:00.414"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
@@ -5367,12 +5491,12 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">138 188 7828,'0'0'5696,"5"-6"-5110,12-20-124,-12 20 64,-4 4-438,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 1,1 1-1,-1-1 0,1 1 0,-1-1 0,5 1 0,50-3-339,-52 3 325,-4 0-81,1 0 1,0 0-1,0 0 0,-1 0 1,1 0-1,0 0 0,-1 1 0,1-1 1,0 1-1,-1-1 0,1 1 0,-1-1 1,1 1-1,-1 0 0,1 0 0,-1 0 1,1 0-1,-1 0 0,0 0 0,1 0 1,-1 0-1,0 0 0,0 1 1,0-1-1,1 2 0,0 2-22,-1 0-1,1 0 1,-1 0-1,-1-1 1,1 1-1,-1 0 1,1 0-1,-2 6 1,0 1-74,0 0 0,-1 0 1,-1-1-1,0 1 0,0-1 0,-1 1 0,-1-1 0,-9 18 0,-2 5-340,23-48-64,2 0 1,0 0-1,16-20 0,-14 21 406,-1 0 0,0-1 0,-1-1 0,9-20 1,-13 10 199,-9 23 15,-3 15-111,2 1 108,0 1 1,1 0-1,0 0 1,1 0 0,1 0-1,-1 23 1,3-33-83,1 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,0 0-1,1 0 1,-1 0 0,1-1-1,3 7 1,-3-9-32,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 1,0-1-1,0 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 0 1,-1 0-1,1 0 0,0 0 0,-1 0 0,1 0 0,0-1 1,-1 1-1,4-1 0,3 1-117,-1-1 0,0 0 0,1-1-1,-1 0 1,0 0 0,0-1 0,0 0 0,0 0 0,10-5 0,38-23-4746,-35 13-239</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1561.94">633 321 3249,'0'0'11614,"-1"-13"-12017,1 14 411,-1 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-3-1 0,4-24-331,2 16 8,-1 25 230,-4-3 213,-4-14 64,6 0-215,0-1-1,0 0 1,1 0 0,-1 0-1,0 0 1,0 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,1-1 0,0 1 0,-1 0-1,1 0 1,0 0 0,0-2-1,0-3-56,0 5 67,-1 1 0,1-1 0,0 0 1,0 1-1,0-1 0,0 0 0,0 1 0,-1-1 1,1 0-1,0 1 0,1-1 0,-1 0 1,0 1-1,0-1 0,0 0 0,0 1 0,0-1 1,1 0-1,-1 1 0,0-1 0,1 0 1,-1 1-1,0-1 0,1 1 0,-1-1 1,1 1-1,-1-1 0,1 1 0,-1-1 0,1 1 1,-1-1-1,1 1 0,-1 0 0,1-1 1,-1 1-1,1 0 0,0 0 0,-1-1 0,1 1 1,0 0-1,-1 0 0,1 0 0,0 0 1,-1 0-1,1 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,1 0 0,1 1 1,-1-1 3,0 1 1,0 0 0,0 0 0,0-1-1,0 1 1,0 0 0,-1 0 0,1 0-1,0 0 1,0 0 0,-1 0-1,1 0 1,-1 0 0,1 1 0,-1-1-1,1 0 1,-1 0 0,0 0 0,1 1-1,-1-1 1,0 0 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0-1,-1 2 1,0 38 42,-1-32-233,-1 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,-1 0 0,0 0 0,-1-1 0,1 1-1,-12 10 1,13-13-407,-16 18-3310</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2084.77">725 254 6147,'0'0'7374,"-1"-3"-6118,1 1-1091,0 1-1,0 0 0,0 0 1,-1 0-1,1 0 0,0 0 1,-1 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 1,0 1-1,1-1 0,-2-1 1,1 2 19,28 19-542,-25-19 356,-1 1-1,1-1 0,0 1 1,-1-1-1,1 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 0 1,-1-1-1,1 1 0,0-1 1,-1 1-1,1-1 0,0 0 1,-1 1-1,1-1 0,-1 0 1,1 0-1,-1 0 0,0 0 1,1 0-1,-1-1 0,0 1 1,0 0-1,0 0 0,0-1 1,0 1-1,0-1 1,0 1-1,0-1 0,0 0 1,0-2-1,2-4-9,-1 0 0,0 0 0,-1 0 0,1 0 0,-2 0 0,1-13 1,1 34-131,0 0 1,0-1-1,7 18 1,-1 1-27,19 67 112,-15-63-331,-3 1-1,0 0 1,-3 0-1,4 57 1,-10-91 386,0 0-1,0 1 1,-1-1-1,1 1 1,-1-1-1,0 0 1,1 0-1,-1 1 1,0-1-1,0 0 1,-1 0 0,1 0-1,0 0 1,-1 0-1,1 0 1,-1 0-1,1-1 1,-1 1-1,0 0 1,0-1 0,0 1-1,0-1 1,0 0-1,0 0 1,0 0-1,-1 0 1,1 0-1,0 0 1,0-1-1,-5 2 1,4-2 80,0 1 1,0-1-1,0 0 0,0 1 0,0-1 1,0-1-1,0 1 0,0 0 0,0-1 1,0 0-1,0 1 0,0-1 1,0 0-1,0-1 0,0 1 0,1 0 1,-1-1-1,0 0 0,1 1 0,0-1 1,-1 0-1,1 0 0,0-1 1,-3-2-1,1-1-51,0-1 0,0 0 1,1 0-1,0 0 0,0-1 0,1 1 0,0-1 1,0 1-1,-1-16 0,2 19-170,1-1-1,0 1 0,0 0 1,1 0-1,-1-1 1,1 1-1,0 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,1 0 1,0 0-1,0 0 1,1 0-1,-1 1 0,1-1 1,0 1-1,5-5 1,17-11-2804,-1 3-1501</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4151.97">1004 48 2353,'0'0'7497,"-2"-7"-6481,0-1-641,2 6-232,0-1 0,-1 1 1,1-1-1,-1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 1,0 1-1,-1 0 0,-1-2 0,67 49 932,-54-35-1066,-1-1-1,0 1 0,0 1 1,-1-1-1,0 2 1,0-1-1,-2 1 1,1 0-1,-2 0 0,7 19 1,-6-8-22,-1 0 0,-1 0 1,-1 0-1,-1 1 0,-1 27 0,-6 58-968,-10-39-4990,6-46 507</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4151.96">1004 48 2353,'0'0'7497,"-2"-7"-6481,0-1-641,2 6-232,0-1 0,-1 1 1,1-1-1,-1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 1,0 1-1,-1 0 0,-1-2 0,67 49 932,-54-35-1066,-1-1-1,0 1 0,0 1 1,-1-1-1,0 2 1,0-1-1,-2 1 1,1 0-1,-2 0 0,7 19 1,-6-8-22,-1 0 0,-1 0 1,-1 0-1,-1 1 0,-1 27 0,-6 58-968,-10-39-4990,6-46 507</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4942.51">102 26 3249,'0'0'5005,"-2"-1"-4404,1 1-591,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 1,-1 0-1,0 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 1 0,0 0 0,-1-1 1,1 1-1,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 2 0,-1 0 41,-11 19 82,1 0 1,1 1-1,1 0 1,1 1 0,1 0-1,1 1 1,1-1-1,1 1 1,1 0 0,1 0-1,1 0 1,4 42-1,-2-63-117,-1 1 0,1 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1-1 0,5 1 0,7 2-664,1-2 1,-1 0-1,1 0 0,26-2 1,-25-1-1506,-11 1-985</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5416,7 +5540,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5448,7 +5572,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5489,7 +5613,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5517,7 +5641,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5542,35 +5666,6 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">59 35 3554,'0'0'4730,"-7"-4"-2102,4 6-2626,3-2-23,3-3-142,-3 1 152,0 1 0,0 0-1,0 0 1,0 0-1,0 0 1,0-1 0,-1 1-1,1 0 1,0 0 0,-1 0-1,1 0 1,-1 0 0,1 0-1,-1 0 1,0 0 0,1 0-1,-1 0 1,0 0 0,0 0-1,1 1 1,-1-1-1,0 0 1,0 0 0,0 1-1,0-1 1,0 1 0,0-1-1,0 1 1,0-1 0,0 1-1,0 0 1,-1-1 0,1 1-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,-1 0 1,1 0 0,0 0-1,0 0 1,0 1 0,0-1-1,0 0 1,-2 2 0,1-1-13,1 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1-1,1 1 1,0-1 0,-1 0 0,1 1 0,0-1 0,0 1-1,0-1 1,0 3 0,0-3 12,-1 0 0,1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,2 0 0,0 0 7,24-4 246,-26 4-231,-1-1 1,1 1-1,0-1 0,-1 0 0,1 0 1,-1 1-1,1-1 0,-1 0 0,1 0 1,-1 0-1,1 1 0,-1-1 0,0 0 1,0 0-1,1 0 0,-1 0 0,0 0 1,0 0-1,0 0 0,0 0 1,0 0-1,0 1 0,0-1 0,0 0 1,-1 0-1,1 0 0,0 0 0,0 0 1,-1-1-1,0 2-17,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 1,1 0-1,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 7,0 0 0,0 0 0,1 0-1,-1 0 1,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0-1,1 0 1,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1-1,0 0 1,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0-1,0 0 1,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0-1,0 1 1,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0-1,0 0 1,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0-1,0 0 1,0 0 0,-1 1 0,5-12 288</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-10-06T14:46:58.521"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#F6630D"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">47 44 544,'0'0'3255,"-17"-21"-320,15 21-2939,1 1 0,0-1 0,0 1-1,-1 0 1,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0-1,-1 1 1,0-1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 2 0,-8 39-134,8-42 116,2 0 51,0 0 0,0-1 0,0 1 0,-1 0 0,1-1-1,0 1 1,0-1 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0-1,-1 0 1,1-1 0,-1 1 0,0 0 0,1 0 0,-1-1 0,0 1-1,0-1 1,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 1-1,1-1 1,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0-1,0 0 1,0 1 0,0-1 0,-1-2 0,1 2 5,0 2-37,1 0 0,-1 0-1,0 0 1,1 0-1,-1 0 1,1 0-1,-1 0 1,0 1 0,1-1-1,-1 0 1,1 0-1,-1 0 1,0 0-1,1 1 1,-1-1 0,0 0-1,1 0 1,-1 1-1,0-1 1,1 0-1,-1 1 1,0-1 0,0 0-1,1 1 1,-1-1-1,0 0 1,0 1-1,0-1 1,1 1 0,-1-1-1,0 0 1,0 1-1,0-1 1,0 1-1,0-1 1,0 1 0,0-1-1,0 0 1,0 1-1,0-1 1,0 1-1,0-1 1,0 0 0,0 1-1,-1-1 1,1 1-1,0-1 1,0 0-1,0 1 1,-1-1 0,1 0-1,0 1 1,0-1-1,-1 0 1,1 1-1,0-1 1,-1 0 0,1 1-1,0-1 1,-1 0-1,1 0 1,-1 1-1,2-2 69,1 1 0,-1-1 0,0 1 0,0-1-1,1 1 1,-1-1 0,0 0 0,0 0 0,0 0 0,0 0-1,0 1 1,0-1 0,0 0 0,0-1 0,0 1-1,0-1 1,3-2-2879</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2378.69">70 61 80,'0'0'7025,"25"0"-7105,7-2 409,-1-2 0,45-9 0,15-3-159,-13 4-105,-52 7-22,0 1-1,1 1 1,49 1-1,57 6 1196,-100 4-1598,-10 5 364,-1 2 0,0 1-1,-1 0 1,-1 2 0,26 28 0,-23-22-13,2-1 1,52 39-1,-28-33 12,1-2 0,96 36-1,132 57 14,-227-95-3,-1 2 0,-1 3 0,-2 2-1,73 62 1,-44-42 7,-56-40-10,0 1-1,34 29 0,-43-32-3,0-2 1,1 0-1,1 0 0,-1-1 0,19 7 0,-17-8-9,1 2 0,-1-1 0,0 2 0,13 10 0,96 67 93,-81-60-118,-37-24 24,0 1 1,-1-1-1,1 1 1,-1-1-1,1 1 0,-1 0 1,0 1-1,0-1 1,0 1-1,-1 0 1,1 0-1,-1 0 1,0 0-1,0 1 1,4 8-1,-7-13-60,0 0 1,0 1-1,0-1 1,0 0-1,0 0 0,0 1 1,0-1-1,1 0 1,-1 1-1,0-1 0,0 0 1,0 0-1,0 1 0,0-1 1,0 0-1,1 0 1,-1 0-1,0 1 0,0-1 1,0 0-1,1 0 1,-1 0-1,0 0 0,0 1 1,1-1-1,-1 0 1,0 0-1,0 0 0,1 0 1,-1 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 0 1,1 0-1,-1 0 0,0 0 1,0 0-1,1 0 1,-1 0-1,0 0 0,1 0 1,-1-1-1,0 1 0,1 0 1,2-5-3987</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -26822,8 +26917,8 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
